--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H2">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.07510659349649</v>
+        <v>3.165574666666667</v>
       </c>
       <c r="N2">
-        <v>3.07510659349649</v>
+        <v>9.496724</v>
       </c>
       <c r="O2">
-        <v>0.07827109213093335</v>
+        <v>0.07285974214006045</v>
       </c>
       <c r="P2">
-        <v>0.07827109213093335</v>
+        <v>0.07285974214006047</v>
       </c>
       <c r="Q2">
-        <v>34.87741655445888</v>
+        <v>54.49170109601111</v>
       </c>
       <c r="R2">
-        <v>34.87741655445888</v>
+        <v>490.4253098641</v>
       </c>
       <c r="S2">
-        <v>0.002378770531551313</v>
+        <v>0.003284996998071592</v>
       </c>
       <c r="T2">
-        <v>0.002378770531551313</v>
+        <v>0.003284996998071593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H3">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.89346403579453</v>
+        <v>5.021595666666666</v>
       </c>
       <c r="N3">
-        <v>4.89346403579453</v>
+        <v>15.064787</v>
       </c>
       <c r="O3">
-        <v>0.1245539830050511</v>
+        <v>0.1155784348597406</v>
       </c>
       <c r="P3">
-        <v>0.1245539830050511</v>
+        <v>0.1155784348597406</v>
       </c>
       <c r="Q3">
-        <v>55.50096504999871</v>
+        <v>86.44095272001944</v>
       </c>
       <c r="R3">
-        <v>55.50096504999871</v>
+        <v>777.968574480175</v>
       </c>
       <c r="S3">
-        <v>0.003785373837177678</v>
+        <v>0.005211036992502672</v>
       </c>
       <c r="T3">
-        <v>0.003785373837177678</v>
+        <v>0.005211036992502673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H4">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.33446084507781</v>
+        <v>0.3650223333333333</v>
       </c>
       <c r="N4">
-        <v>0.33446084507781</v>
+        <v>1.095067</v>
       </c>
       <c r="O4">
-        <v>0.00851307583114028</v>
+        <v>0.008401454990804153</v>
       </c>
       <c r="P4">
-        <v>0.00851307583114028</v>
+        <v>0.008401454990804155</v>
       </c>
       <c r="Q4">
-        <v>3.793406784534096</v>
+        <v>6.283436650797222</v>
       </c>
       <c r="R4">
-        <v>3.793406784534096</v>
+        <v>56.550929857175</v>
       </c>
       <c r="S4">
-        <v>0.0002587245606092033</v>
+        <v>0.0003787929192937758</v>
       </c>
       <c r="T4">
-        <v>0.0002587245606092033</v>
+        <v>0.000378792919293776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H5">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I5">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J5">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.248590872905783</v>
+        <v>0.4730086666666666</v>
       </c>
       <c r="N5">
-        <v>0.248590872905783</v>
+        <v>1.419026</v>
       </c>
       <c r="O5">
-        <v>0.006327416147872108</v>
+        <v>0.0108868983083052</v>
       </c>
       <c r="P5">
-        <v>0.006327416147872108</v>
+        <v>0.01088689830830521</v>
       </c>
       <c r="Q5">
-        <v>2.819481914645843</v>
+        <v>8.142296294961112</v>
       </c>
       <c r="R5">
-        <v>2.819481914645843</v>
+        <v>73.28066665464999</v>
       </c>
       <c r="S5">
-        <v>0.0001922992341571229</v>
+        <v>0.0004908530720894425</v>
       </c>
       <c r="T5">
-        <v>0.0001922992341571229</v>
+        <v>0.0004908530720894426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H6">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I6">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J6">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.7362744965869</v>
+        <v>34.42231266666666</v>
       </c>
       <c r="N6">
-        <v>30.7362744965869</v>
+        <v>103.266938</v>
       </c>
       <c r="O6">
-        <v>0.782334432885003</v>
+        <v>0.7922734697010896</v>
       </c>
       <c r="P6">
-        <v>0.782334432885003</v>
+        <v>0.7922734697010897</v>
       </c>
       <c r="Q6">
-        <v>348.6064031786142</v>
+        <v>592.5402400444945</v>
       </c>
       <c r="R6">
-        <v>348.6064031786142</v>
+        <v>5332.86216040045</v>
       </c>
       <c r="S6">
-        <v>0.02377626329337078</v>
+        <v>0.03572090558070817</v>
       </c>
       <c r="T6">
-        <v>0.02377626329337078</v>
+        <v>0.03572090558070817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H7">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J7">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.07510659349649</v>
+        <v>3.165574666666667</v>
       </c>
       <c r="N7">
-        <v>3.07510659349649</v>
+        <v>9.496724</v>
       </c>
       <c r="O7">
-        <v>0.07827109213093335</v>
+        <v>0.07285974214006045</v>
       </c>
       <c r="P7">
-        <v>0.07827109213093335</v>
+        <v>0.07285974214006047</v>
       </c>
       <c r="Q7">
-        <v>1058.80950077838</v>
+        <v>1097.654000110016</v>
       </c>
       <c r="R7">
-        <v>1058.80950077838</v>
+        <v>9878.886000990144</v>
       </c>
       <c r="S7">
-        <v>0.07221477643120243</v>
+        <v>0.06617136229477386</v>
       </c>
       <c r="T7">
-        <v>0.07221477643120243</v>
+        <v>0.06617136229477388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H8">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J8">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.89346403579453</v>
+        <v>5.021595666666666</v>
       </c>
       <c r="N8">
-        <v>4.89346403579453</v>
+        <v>15.064787</v>
       </c>
       <c r="O8">
-        <v>0.1245539830050511</v>
+        <v>0.1155784348597406</v>
       </c>
       <c r="P8">
-        <v>0.1245539830050511</v>
+        <v>0.1155784348597406</v>
       </c>
       <c r="Q8">
-        <v>1684.899711695953</v>
+        <v>1741.223995912208</v>
       </c>
       <c r="R8">
-        <v>1684.899711695953</v>
+        <v>15671.01596320987</v>
       </c>
       <c r="S8">
-        <v>0.1149164754374342</v>
+        <v>0.1049685637353049</v>
       </c>
       <c r="T8">
-        <v>0.1149164754374342</v>
+        <v>0.1049685637353049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H9">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J9">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33446084507781</v>
+        <v>0.3650223333333333</v>
       </c>
       <c r="N9">
-        <v>0.33446084507781</v>
+        <v>1.095067</v>
       </c>
       <c r="O9">
-        <v>0.00851307583114028</v>
+        <v>0.008401454990804153</v>
       </c>
       <c r="P9">
-        <v>0.00851307583114028</v>
+        <v>0.008401454990804155</v>
       </c>
       <c r="Q9">
-        <v>115.1603398580385</v>
+        <v>126.570454499728</v>
       </c>
       <c r="R9">
-        <v>115.1603398580385</v>
+        <v>1139.134090497552</v>
       </c>
       <c r="S9">
-        <v>0.007854366805809603</v>
+        <v>0.007630218082999055</v>
       </c>
       <c r="T9">
-        <v>0.007854366805809603</v>
+        <v>0.007630218082999058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H10">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J10">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.248590872905783</v>
+        <v>0.4730086666666666</v>
       </c>
       <c r="N10">
-        <v>0.248590872905783</v>
+        <v>1.419026</v>
       </c>
       <c r="O10">
-        <v>0.006327416147872108</v>
+        <v>0.0108868983083052</v>
       </c>
       <c r="P10">
-        <v>0.006327416147872108</v>
+        <v>0.01088689830830521</v>
       </c>
       <c r="Q10">
-        <v>85.59390383282795</v>
+        <v>164.014408037984</v>
       </c>
       <c r="R10">
-        <v>85.59390383282795</v>
+        <v>1476.129672341856</v>
       </c>
       <c r="S10">
-        <v>0.005837825052209549</v>
+        <v>0.009887502632666145</v>
       </c>
       <c r="T10">
-        <v>0.005837825052209549</v>
+        <v>0.009887502632666148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H11">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J11">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.7362744965869</v>
+        <v>34.42231266666666</v>
       </c>
       <c r="N11">
-        <v>30.7362744965869</v>
+        <v>103.266938</v>
       </c>
       <c r="O11">
-        <v>0.782334432885003</v>
+        <v>0.7922734697010896</v>
       </c>
       <c r="P11">
-        <v>0.782334432885003</v>
+        <v>0.7922734697010897</v>
       </c>
       <c r="Q11">
-        <v>10583.00207360131</v>
+        <v>11935.83888242019</v>
       </c>
       <c r="R11">
-        <v>10583.00207360131</v>
+        <v>107422.5499417817</v>
       </c>
       <c r="S11">
-        <v>0.7218004071121723</v>
+        <v>0.7195443362858549</v>
       </c>
       <c r="T11">
-        <v>0.7218004071121723</v>
+        <v>0.7195443362858551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>17.5343471090724</v>
+        <v>0.042542</v>
       </c>
       <c r="H12">
-        <v>17.5343471090724</v>
+        <v>0.127626</v>
       </c>
       <c r="I12">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="J12">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.07510659349649</v>
+        <v>3.165574666666667</v>
       </c>
       <c r="N12">
-        <v>3.07510659349649</v>
+        <v>9.496724</v>
       </c>
       <c r="O12">
-        <v>0.07827109213093335</v>
+        <v>0.07285974214006045</v>
       </c>
       <c r="P12">
-        <v>0.07827109213093335</v>
+        <v>0.07285974214006047</v>
       </c>
       <c r="Q12">
-        <v>53.91998640776465</v>
+        <v>0.1346698774693333</v>
       </c>
       <c r="R12">
-        <v>53.91998640776465</v>
+        <v>1.212028897224</v>
       </c>
       <c r="S12">
-        <v>0.003677545168179613</v>
+        <v>8.118486564366273E-06</v>
       </c>
       <c r="T12">
-        <v>0.003677545168179613</v>
+        <v>8.118486564366276E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>17.5343471090724</v>
+        <v>0.042542</v>
       </c>
       <c r="H13">
-        <v>17.5343471090724</v>
+        <v>0.127626</v>
       </c>
       <c r="I13">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="J13">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.89346403579453</v>
+        <v>5.021595666666666</v>
       </c>
       <c r="N13">
-        <v>4.89346403579453</v>
+        <v>15.064787</v>
       </c>
       <c r="O13">
-        <v>0.1245539830050511</v>
+        <v>0.1155784348597406</v>
       </c>
       <c r="P13">
-        <v>0.1245539830050511</v>
+        <v>0.1155784348597406</v>
       </c>
       <c r="Q13">
-        <v>85.80369696938357</v>
+        <v>0.2136287228513333</v>
       </c>
       <c r="R13">
-        <v>85.80369696938357</v>
+        <v>1.922658505662</v>
       </c>
       <c r="S13">
-        <v>0.005852133730439227</v>
+        <v>1.287846954955621E-05</v>
       </c>
       <c r="T13">
-        <v>0.005852133730439227</v>
+        <v>1.287846954955622E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>17.5343471090724</v>
+        <v>0.042542</v>
       </c>
       <c r="H14">
-        <v>17.5343471090724</v>
+        <v>0.127626</v>
       </c>
       <c r="I14">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="J14">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.33446084507781</v>
+        <v>0.3650223333333333</v>
       </c>
       <c r="N14">
-        <v>0.33446084507781</v>
+        <v>1.095067</v>
       </c>
       <c r="O14">
-        <v>0.00851307583114028</v>
+        <v>0.008401454990804153</v>
       </c>
       <c r="P14">
-        <v>0.00851307583114028</v>
+        <v>0.008401454990804155</v>
       </c>
       <c r="Q14">
-        <v>5.864552551988009</v>
+        <v>0.01552878010466667</v>
       </c>
       <c r="R14">
-        <v>5.864552551988009</v>
+        <v>0.139759020942</v>
       </c>
       <c r="S14">
-        <v>0.0003999844647214743</v>
+        <v>9.361424767720828E-07</v>
       </c>
       <c r="T14">
-        <v>0.0003999844647214743</v>
+        <v>9.361424767720832E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>17.5343471090724</v>
+        <v>0.042542</v>
       </c>
       <c r="H15">
-        <v>17.5343471090724</v>
+        <v>0.127626</v>
       </c>
       <c r="I15">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="J15">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.248590872905783</v>
+        <v>0.4730086666666666</v>
       </c>
       <c r="N15">
-        <v>0.248590872905783</v>
+        <v>1.419026</v>
       </c>
       <c r="O15">
-        <v>0.006327416147872108</v>
+        <v>0.0108868983083052</v>
       </c>
       <c r="P15">
-        <v>0.006327416147872108</v>
+        <v>0.01088689830830521</v>
       </c>
       <c r="Q15">
-        <v>4.358878653677301</v>
+        <v>0.02012273469733333</v>
       </c>
       <c r="R15">
-        <v>4.358878653677301</v>
+        <v>0.181104612276</v>
       </c>
       <c r="S15">
-        <v>0.0002972918615054369</v>
+        <v>1.21308606162361E-06</v>
       </c>
       <c r="T15">
-        <v>0.0002972918615054369</v>
+        <v>1.21308606162361E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.042542</v>
+      </c>
+      <c r="H16">
+        <v>0.127626</v>
+      </c>
+      <c r="I16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>34.42231266666666</v>
+      </c>
+      <c r="N16">
+        <v>103.266938</v>
+      </c>
+      <c r="O16">
+        <v>0.7922734697010896</v>
+      </c>
+      <c r="P16">
+        <v>0.7922734697010897</v>
+      </c>
+      <c r="Q16">
+        <v>1.464394025465333</v>
+      </c>
+      <c r="R16">
+        <v>13.179546229188</v>
+      </c>
+      <c r="S16">
+        <v>8.828004780345778E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.828004780345782E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.194746</v>
+      </c>
+      <c r="I17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.165574666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.496724</v>
+      </c>
+      <c r="O17">
+        <v>0.07285974214006045</v>
+      </c>
+      <c r="P17">
+        <v>0.07285974214006047</v>
+      </c>
+      <c r="Q17">
+        <v>0.2054943346782222</v>
+      </c>
+      <c r="R17">
+        <v>1.849449012104</v>
+      </c>
+      <c r="S17">
+        <v>1.238809321348373E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.238809321348373E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.194746</v>
+      </c>
+      <c r="I18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.021595666666666</v>
+      </c>
+      <c r="N18">
+        <v>15.064787</v>
+      </c>
+      <c r="O18">
+        <v>0.1155784348597406</v>
+      </c>
+      <c r="P18">
+        <v>0.1155784348597406</v>
+      </c>
+      <c r="Q18">
+        <v>0.3259785565668889</v>
+      </c>
+      <c r="R18">
+        <v>2.933807009102</v>
+      </c>
+      <c r="S18">
+        <v>1.965140669532756E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.965140669532756E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.194746</v>
+      </c>
+      <c r="I19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3650223333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.095067</v>
+      </c>
+      <c r="O19">
+        <v>0.008401454990804153</v>
+      </c>
+      <c r="P19">
+        <v>0.008401454990804155</v>
+      </c>
+      <c r="Q19">
+        <v>0.02369554644244445</v>
+      </c>
+      <c r="R19">
+        <v>0.213259917982</v>
+      </c>
+      <c r="S19">
+        <v>1.428470709584693E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.428470709584693E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.194746</v>
+      </c>
+      <c r="I20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4730086666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.419026</v>
+      </c>
+      <c r="O20">
+        <v>0.0108868983083052</v>
+      </c>
+      <c r="P20">
+        <v>0.01088689830830521</v>
+      </c>
+      <c r="Q20">
+        <v>0.03070551526622222</v>
+      </c>
+      <c r="R20">
+        <v>0.276349637396</v>
+      </c>
+      <c r="S20">
+        <v>1.851062151575318E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.851062151575318E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.194746</v>
+      </c>
+      <c r="I21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.42231266666666</v>
+      </c>
+      <c r="N21">
+        <v>103.266938</v>
+      </c>
+      <c r="O21">
+        <v>0.7922734697010896</v>
+      </c>
+      <c r="P21">
+        <v>0.7922734697010897</v>
+      </c>
+      <c r="Q21">
+        <v>2.234535900860889</v>
+      </c>
+      <c r="R21">
+        <v>20.110823107748</v>
+      </c>
+      <c r="S21">
+        <v>0.000134707553237837</v>
+      </c>
+      <c r="T21">
+        <v>0.0001347075532378371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H22">
+        <v>53.180228</v>
+      </c>
+      <c r="I22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.165574666666667</v>
+      </c>
+      <c r="N22">
+        <v>9.496724</v>
+      </c>
+      <c r="O22">
+        <v>0.07285974214006045</v>
+      </c>
+      <c r="P22">
+        <v>0.07285974214006047</v>
+      </c>
+      <c r="Q22">
+        <v>56.11532750811911</v>
+      </c>
+      <c r="R22">
+        <v>505.037947573072</v>
+      </c>
+      <c r="S22">
+        <v>0.00338287626743716</v>
+      </c>
+      <c r="T22">
+        <v>0.003382876267437161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H23">
+        <v>53.180228</v>
+      </c>
+      <c r="I23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.021595666666666</v>
+      </c>
+      <c r="N23">
+        <v>15.064787</v>
+      </c>
+      <c r="O23">
+        <v>0.1155784348597406</v>
+      </c>
+      <c r="P23">
+        <v>0.1155784348597406</v>
+      </c>
+      <c r="Q23">
+        <v>89.01653415904843</v>
+      </c>
+      <c r="R23">
+        <v>801.1488074314359</v>
+      </c>
+      <c r="S23">
+        <v>0.005366304255688157</v>
+      </c>
+      <c r="T23">
+        <v>0.005366304255688158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="H16">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="I16">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="J16">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.7362744965869</v>
-      </c>
-      <c r="N16">
-        <v>30.7362744965869</v>
-      </c>
-      <c r="O16">
-        <v>0.782334432885003</v>
-      </c>
-      <c r="P16">
-        <v>0.782334432885003</v>
-      </c>
-      <c r="Q16">
-        <v>538.9405058628843</v>
-      </c>
-      <c r="R16">
-        <v>538.9405058628843</v>
-      </c>
-      <c r="S16">
-        <v>0.03675776247946002</v>
-      </c>
-      <c r="T16">
-        <v>0.03675776247946002</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H24">
+        <v>53.180228</v>
+      </c>
+      <c r="I24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3650223333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.095067</v>
+      </c>
+      <c r="O24">
+        <v>0.008401454990804153</v>
+      </c>
+      <c r="P24">
+        <v>0.008401454990804155</v>
+      </c>
+      <c r="Q24">
+        <v>6.470656970586222</v>
+      </c>
+      <c r="R24">
+        <v>58.235912735276</v>
+      </c>
+      <c r="S24">
+        <v>0.0003900793753249656</v>
+      </c>
+      <c r="T24">
+        <v>0.0003900793753249658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H25">
+        <v>53.180228</v>
+      </c>
+      <c r="I25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4730086666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.419026</v>
+      </c>
+      <c r="O25">
+        <v>0.0108868983083052</v>
+      </c>
+      <c r="P25">
+        <v>0.01088689830830521</v>
+      </c>
+      <c r="Q25">
+        <v>8.38490291310311</v>
+      </c>
+      <c r="R25">
+        <v>75.464126217928</v>
+      </c>
+      <c r="S25">
+        <v>0.0005054784553364174</v>
+      </c>
+      <c r="T25">
+        <v>0.0005054784553364176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H26">
+        <v>53.180228</v>
+      </c>
+      <c r="I26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>34.42231266666666</v>
+      </c>
+      <c r="N26">
+        <v>103.266938</v>
+      </c>
+      <c r="O26">
+        <v>0.7922734697010896</v>
+      </c>
+      <c r="P26">
+        <v>0.7922734697010897</v>
+      </c>
+      <c r="Q26">
+        <v>610.1954786335403</v>
+      </c>
+      <c r="R26">
+        <v>5491.759307701864</v>
+      </c>
+      <c r="S26">
+        <v>0.03678524023348521</v>
+      </c>
+      <c r="T26">
+        <v>0.03678524023348523</v>
       </c>
     </row>
   </sheetData>
